--- a/Backend/uploads/Book1.xlsx
+++ b/Backend/uploads/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7485"/>
+    <workbookView windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -987,13 +987,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1295,9 +1288,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
-        <v>1234567890123</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1311,7 +1302,7 @@
         <v>5.5</v>
       </c>
       <c r="H2" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:8">
@@ -1321,9 +1312,7 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
-        <v>9876543210987</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1337,7 +1326,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="60" spans="1:8">
@@ -1347,9 +1336,7 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
-        <v>5555555555555</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1363,7 +1350,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1385,7 +1372,7 @@
         <v>150</v>
       </c>
       <c r="H5" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
